--- a/Problem2/CAN登机口信息表(8.12).xlsx
+++ b/Problem2/CAN登机口信息表(8.12).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12585"/>
+    <workbookView windowWidth="21540" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="登机口对应表" sheetId="6" r:id="rId1"/>
@@ -675,19 +675,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,7 +708,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,38 +729,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,6 +742,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,15 +770,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,16 +806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,16 +820,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,6 +830,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,73 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,73 +878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +902,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1022,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,8 +1063,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,22 +1073,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,30 +1089,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,6 +1110,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1164,90 +1127,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1256,61 +1249,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,47 +1317,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
       <protection locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1686,10 +1679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:B200"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F30" sqref="D30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="13.5"/>
@@ -1730,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1761,8 +1754,14 @@
       <c r="I2">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1793,8 +1792,14 @@
       <c r="I3">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1825,8 +1830,14 @@
       <c r="I4">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1857,8 +1868,14 @@
       <c r="I5">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1889,8 +1906,14 @@
       <c r="I6">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1921,8 +1944,14 @@
       <c r="I7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1953,8 +1982,14 @@
       <c r="I8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1985,8 +2020,14 @@
       <c r="I9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2017,8 +2058,14 @@
       <c r="I10">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -2049,8 +2096,14 @@
       <c r="I11">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -2081,8 +2134,14 @@
       <c r="I12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -2113,8 +2172,14 @@
       <c r="I13">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2142,8 +2207,14 @@
       <c r="I14">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -2171,8 +2242,14 @@
       <c r="I15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -2200,8 +2277,14 @@
       <c r="I16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -2229,8 +2312,14 @@
       <c r="I17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -2258,8 +2347,14 @@
       <c r="I18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2382,14 @@
       <c r="I19">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -2316,8 +2417,11 @@
       <c r="I20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="L20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -2345,8 +2449,11 @@
       <c r="I21">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="L21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -2374,8 +2481,11 @@
       <c r="I22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -2403,8 +2513,11 @@
       <c r="I23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="L23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2432,8 +2545,11 @@
       <c r="I24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="L24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2464,8 +2580,11 @@
       <c r="I25">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="L25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -2493,8 +2612,11 @@
       <c r="I26">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="L26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
@@ -2525,8 +2647,11 @@
       <c r="I27">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="L27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -2557,8 +2682,11 @@
       <c r="I28">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="L28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -2586,8 +2714,11 @@
       <c r="I29">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="L29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -2615,8 +2746,11 @@
       <c r="I30">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="L30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -2644,8 +2778,11 @@
       <c r="I31">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="L31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -2676,8 +2813,11 @@
       <c r="I32">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="L32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -2708,8 +2848,11 @@
       <c r="I33">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="L33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -2737,8 +2880,11 @@
       <c r="I34">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="L34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
@@ -2769,8 +2915,11 @@
       <c r="I35">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="L35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
@@ -2801,8 +2950,11 @@
       <c r="I36">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="L36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
@@ -2833,8 +2985,11 @@
       <c r="I37">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="L37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
@@ -2865,8 +3020,11 @@
       <c r="I38">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="L38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="I39">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="L39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -2929,8 +3090,11 @@
       <c r="I40">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="L40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
@@ -2961,8 +3125,11 @@
       <c r="I41">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="L41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -2993,8 +3160,11 @@
       <c r="I42">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="L42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -3025,8 +3195,11 @@
       <c r="I43">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="L43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="5" t="s">
         <v>58</v>
       </c>
@@ -3057,8 +3230,11 @@
       <c r="I44">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="L44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="5" t="s">
         <v>59</v>
       </c>
@@ -3086,8 +3262,11 @@
       <c r="I45">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="L45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="5" t="s">
         <v>61</v>
       </c>
@@ -3115,8 +3294,11 @@
       <c r="I46">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="L46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>62</v>
       </c>
@@ -3147,8 +3329,11 @@
       <c r="I47">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="L47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>63</v>
       </c>
@@ -3179,8 +3364,11 @@
       <c r="I48">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="L48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>64</v>
       </c>
@@ -3211,8 +3399,11 @@
       <c r="I49">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="L49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="5" t="s">
         <v>65</v>
       </c>
@@ -3243,8 +3434,11 @@
       <c r="I50">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="L50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>66</v>
       </c>
@@ -3275,8 +3469,11 @@
       <c r="I51">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="L51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>67</v>
       </c>
@@ -3307,8 +3504,11 @@
       <c r="I52">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="L52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
@@ -3339,8 +3539,11 @@
       <c r="I53">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="L53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
@@ -3371,8 +3574,11 @@
       <c r="I54">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="L54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="5" t="s">
         <v>70</v>
       </c>
@@ -3403,8 +3609,11 @@
       <c r="I55">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="L55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>71</v>
       </c>
@@ -3435,8 +3644,11 @@
       <c r="I56">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="L56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="5" t="s">
         <v>72</v>
       </c>
@@ -3467,8 +3679,11 @@
       <c r="I57">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="L57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="5" t="s">
         <v>73</v>
       </c>
@@ -3499,8 +3714,11 @@
       <c r="I58">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="L58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="5" t="s">
         <v>74</v>
       </c>
@@ -3528,8 +3746,11 @@
       <c r="I59">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="L59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>75</v>
       </c>
@@ -3557,8 +3778,11 @@
       <c r="I60">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="L60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="5" t="s">
         <v>76</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="I61">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="L61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="5" t="s">
         <v>77</v>
       </c>
@@ -3615,8 +3842,11 @@
       <c r="I62">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="L62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="5" t="s">
         <v>78</v>
       </c>
@@ -3644,8 +3874,11 @@
       <c r="I63">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="L63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="5" t="s">
         <v>79</v>
       </c>
@@ -3673,8 +3906,11 @@
       <c r="I64">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="L64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="5" t="s">
         <v>80</v>
       </c>
@@ -3705,8 +3941,11 @@
       <c r="I65">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="L65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="5" t="s">
         <v>81</v>
       </c>
@@ -3737,8 +3976,11 @@
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="L66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="5" t="s">
         <v>82</v>
       </c>
@@ -3769,8 +4011,11 @@
       <c r="I67">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="L67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="5" t="s">
         <v>83</v>
       </c>
@@ -3801,8 +4046,11 @@
       <c r="I68">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="L68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="5" t="s">
         <v>84</v>
       </c>
@@ -3833,8 +4081,11 @@
       <c r="I69">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="L69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="5" t="s">
         <v>85</v>
       </c>
@@ -3865,8 +4116,11 @@
       <c r="I70">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="L70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="5" t="s">
         <v>86</v>
       </c>
@@ -3897,8 +4151,11 @@
       <c r="I71">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="L71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="5" t="s">
         <v>87</v>
       </c>
@@ -3929,8 +4186,11 @@
       <c r="I72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="L72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="5" t="s">
         <v>88</v>
       </c>
@@ -3961,8 +4221,11 @@
       <c r="I73">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="L73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="5" t="s">
         <v>89</v>
       </c>
@@ -3993,8 +4256,11 @@
       <c r="I74">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="L74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="5" t="s">
         <v>90</v>
       </c>
@@ -4025,8 +4291,11 @@
       <c r="I75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="L75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="5" t="s">
         <v>91</v>
       </c>
@@ -4057,8 +4326,11 @@
       <c r="I76">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="L76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="5" t="s">
         <v>92</v>
       </c>
@@ -4089,8 +4361,11 @@
       <c r="I77">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="L77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="5" t="s">
         <v>93</v>
       </c>
@@ -4121,8 +4396,11 @@
       <c r="I78">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="L78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="5" t="s">
         <v>94</v>
       </c>
@@ -4153,8 +4431,11 @@
       <c r="I79">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="L79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="5" t="s">
         <v>95</v>
       </c>
@@ -4185,8 +4466,11 @@
       <c r="I80">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="L80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -4217,8 +4501,11 @@
       <c r="I81">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="L81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="5" t="s">
         <v>97</v>
       </c>
@@ -4249,8 +4536,11 @@
       <c r="I82">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="L82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="5" t="s">
         <v>98</v>
       </c>
@@ -4281,8 +4571,11 @@
       <c r="I83">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="L83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="5" t="s">
         <v>99</v>
       </c>
@@ -4313,8 +4606,11 @@
       <c r="I84">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="L84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="5" t="s">
         <v>100</v>
       </c>
@@ -4345,8 +4641,11 @@
       <c r="I85">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="L85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
@@ -4377,8 +4676,11 @@
       <c r="I86">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="L86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="5" t="s">
         <v>102</v>
       </c>
@@ -4409,8 +4711,11 @@
       <c r="I87">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="L87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="5" t="s">
         <v>103</v>
       </c>
@@ -4438,8 +4743,11 @@
       <c r="I88">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="L88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="5" t="s">
         <v>104</v>
       </c>
@@ -4467,8 +4775,11 @@
       <c r="I89">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="L89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="5" t="s">
         <v>105</v>
       </c>
@@ -4496,8 +4807,11 @@
       <c r="I90">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="L90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="5" t="s">
         <v>106</v>
       </c>
@@ -4525,8 +4839,11 @@
       <c r="I91">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="L91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="5" t="s">
         <v>107</v>
       </c>
@@ -4554,8 +4871,11 @@
       <c r="I92">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="L92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="5" t="s">
         <v>108</v>
       </c>
@@ -4583,8 +4903,11 @@
       <c r="I93">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="L93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="5" t="s">
         <v>109</v>
       </c>
@@ -4612,8 +4935,11 @@
       <c r="I94">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="L94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="5" t="s">
         <v>110</v>
       </c>
@@ -4641,8 +4967,11 @@
       <c r="I95">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="L95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
@@ -4670,8 +4999,11 @@
       <c r="I96">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="L96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="5" t="s">
         <v>112</v>
       </c>
@@ -4699,8 +5031,11 @@
       <c r="I97">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="L97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="5" t="s">
         <v>113</v>
       </c>
@@ -4728,8 +5063,11 @@
       <c r="I98">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="L98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="5" t="s">
         <v>114</v>
       </c>
@@ -4757,8 +5095,11 @@
       <c r="I99">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="L99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="5" t="s">
         <v>115</v>
       </c>
@@ -4786,8 +5127,11 @@
       <c r="I100">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="L100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="5" t="s">
         <v>116</v>
       </c>
@@ -4818,8 +5162,11 @@
       <c r="I101">
         <v>27</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="L101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="5" t="s">
         <v>117</v>
       </c>
@@ -4850,8 +5197,11 @@
       <c r="I102">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="L102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="5" t="s">
         <v>118</v>
       </c>
@@ -4882,8 +5232,11 @@
       <c r="I103">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="L103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="5" t="s">
         <v>119</v>
       </c>
@@ -4914,8 +5267,11 @@
       <c r="I104">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="L104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="5" t="s">
         <v>120</v>
       </c>
@@ -4946,8 +5302,11 @@
       <c r="I105">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="L105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="5" t="s">
         <v>121</v>
       </c>
@@ -4975,8 +5334,11 @@
       <c r="I106">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="L106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="5" t="s">
         <v>122</v>
       </c>
@@ -5007,8 +5369,11 @@
       <c r="I107">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="L107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="5" t="s">
         <v>123</v>
       </c>
@@ -5039,8 +5404,11 @@
       <c r="I108">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="L108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="5" t="s">
         <v>124</v>
       </c>
@@ -5071,8 +5439,11 @@
       <c r="I109">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="L109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="5" t="s">
         <v>125</v>
       </c>
@@ -5103,8 +5474,11 @@
       <c r="I110">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="L110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="5" t="s">
         <v>126</v>
       </c>
@@ -5135,8 +5509,11 @@
       <c r="I111">
         <v>27</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="L111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="5" t="s">
         <v>127</v>
       </c>
@@ -5164,8 +5541,11 @@
       <c r="I112">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="L112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="5" t="s">
         <v>128</v>
       </c>
@@ -5193,8 +5573,11 @@
       <c r="I113">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="L113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="5" t="s">
         <v>129</v>
       </c>
@@ -5222,8 +5605,11 @@
       <c r="I114">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="L114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="5" t="s">
         <v>130</v>
       </c>
@@ -5251,8 +5637,11 @@
       <c r="I115">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="L115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="5" t="s">
         <v>131</v>
       </c>
@@ -5280,8 +5669,11 @@
       <c r="I116">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="L116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="5" t="s">
         <v>132</v>
       </c>
@@ -5312,8 +5704,11 @@
       <c r="I117">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="L117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="5" t="s">
         <v>133</v>
       </c>
@@ -5344,8 +5739,11 @@
       <c r="I118">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="L118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="5" t="s">
         <v>134</v>
       </c>
@@ -5373,8 +5771,11 @@
       <c r="I119">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="L119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="5" t="s">
         <v>135</v>
       </c>
@@ -5402,8 +5803,11 @@
       <c r="I120">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="L120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="5" t="s">
         <v>136</v>
       </c>
@@ -5434,8 +5838,11 @@
       <c r="I121">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="L121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="5" t="s">
         <v>137</v>
       </c>
@@ -5466,8 +5873,11 @@
       <c r="I122">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="L122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="5" t="s">
         <v>138</v>
       </c>
@@ -5498,8 +5908,11 @@
       <c r="I123">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="L123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="5" t="s">
         <v>139</v>
       </c>
@@ -5530,8 +5943,11 @@
       <c r="I124">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="L124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="5" t="s">
         <v>140</v>
       </c>
@@ -5559,8 +5975,11 @@
       <c r="I125">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="L125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="5" t="s">
         <v>141</v>
       </c>
@@ -5588,8 +6007,11 @@
       <c r="I126">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="L126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="5" t="s">
         <v>142</v>
       </c>
@@ -5617,8 +6039,11 @@
       <c r="I127">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="L127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="5" t="s">
         <v>143</v>
       </c>
@@ -5646,8 +6071,11 @@
       <c r="I128">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="L128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="5" t="s">
         <v>144</v>
       </c>
@@ -5675,8 +6103,11 @@
       <c r="I129">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="L129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
         <v>145</v>
       </c>
@@ -5704,8 +6135,11 @@
       <c r="I130">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="L130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -5733,8 +6167,11 @@
       <c r="I131">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="L131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
         <v>149</v>
       </c>
@@ -5762,8 +6199,11 @@
       <c r="I132">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="L132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
         <v>150</v>
       </c>
@@ -5791,8 +6231,11 @@
       <c r="I133">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="L133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
         <v>151</v>
       </c>
@@ -5820,8 +6263,11 @@
       <c r="I134">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="L134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
         <v>152</v>
       </c>
@@ -5849,8 +6295,11 @@
       <c r="I135">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="L135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
         <v>153</v>
       </c>
@@ -5878,8 +6327,11 @@
       <c r="I136">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="L136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
         <v>154</v>
       </c>
@@ -5907,8 +6359,11 @@
       <c r="I137">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="L137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
         <v>155</v>
       </c>
@@ -5936,8 +6391,11 @@
       <c r="I138">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="L138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
         <v>156</v>
       </c>
@@ -5965,8 +6423,11 @@
       <c r="I139">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="L139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
         <v>157</v>
       </c>
@@ -5994,8 +6455,11 @@
       <c r="I140">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="L140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -6023,8 +6487,11 @@
       <c r="I141">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="L141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
         <v>159</v>
       </c>
@@ -6052,8 +6519,11 @@
       <c r="I142">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="L142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
         <v>160</v>
       </c>
@@ -6081,8 +6551,11 @@
       <c r="I143">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="L143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
         <v>161</v>
       </c>
@@ -6110,8 +6583,11 @@
       <c r="I144">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="L144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="2" t="s">
         <v>162</v>
       </c>
@@ -6139,8 +6615,11 @@
       <c r="I145">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="L145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
         <v>163</v>
       </c>
@@ -6168,8 +6647,11 @@
       <c r="I146">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="L146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
         <v>164</v>
       </c>
@@ -6197,8 +6679,11 @@
       <c r="I147">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="L147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
         <v>165</v>
       </c>
@@ -6226,8 +6711,11 @@
       <c r="I148">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="L148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="2" t="s">
         <v>166</v>
       </c>
@@ -6255,8 +6743,11 @@
       <c r="I149">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="L149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="2" t="s">
         <v>167</v>
       </c>
@@ -6284,8 +6775,11 @@
       <c r="I150">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="L150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="2" t="s">
         <v>168</v>
       </c>
@@ -6313,8 +6807,11 @@
       <c r="I151">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="L151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="2" t="s">
         <v>169</v>
       </c>
@@ -6342,8 +6839,11 @@
       <c r="I152">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="L152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
         <v>170</v>
       </c>
@@ -6371,8 +6871,11 @@
       <c r="I153">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="L153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="2" t="s">
         <v>171</v>
       </c>
@@ -6400,8 +6903,11 @@
       <c r="I154">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="L154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="2" t="s">
         <v>172</v>
       </c>
@@ -6429,8 +6935,11 @@
       <c r="I155">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="L155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="2" t="s">
         <v>173</v>
       </c>
@@ -6458,8 +6967,11 @@
       <c r="I156">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="L156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="2" t="s">
         <v>174</v>
       </c>
@@ -6487,8 +6999,11 @@
       <c r="I157">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="L157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="2" t="s">
         <v>175</v>
       </c>
@@ -6516,8 +7031,11 @@
       <c r="I158">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="L158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="2" t="s">
         <v>176</v>
       </c>
@@ -6545,8 +7063,11 @@
       <c r="I159">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="L159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="2" t="s">
         <v>177</v>
       </c>
@@ -6574,8 +7095,11 @@
       <c r="I160">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="L160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
         <v>178</v>
       </c>
@@ -6603,8 +7127,11 @@
       <c r="I161">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="L161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
         <v>179</v>
       </c>
@@ -6632,8 +7159,11 @@
       <c r="I162">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="L162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
         <v>180</v>
       </c>
@@ -6661,8 +7191,11 @@
       <c r="I163">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="L163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
         <v>181</v>
       </c>
@@ -6690,8 +7223,11 @@
       <c r="I164">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="L164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
         <v>182</v>
       </c>
@@ -6719,8 +7255,11 @@
       <c r="I165">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="L165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
         <v>183</v>
       </c>
@@ -6748,8 +7287,11 @@
       <c r="I166">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="L166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
         <v>184</v>
       </c>
@@ -6777,8 +7319,11 @@
       <c r="I167">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="L167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
         <v>185</v>
       </c>
@@ -6806,8 +7351,11 @@
       <c r="I168">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="L168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
         <v>186</v>
       </c>
@@ -6835,8 +7383,11 @@
       <c r="I169">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="L169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
         <v>187</v>
       </c>
@@ -6864,8 +7415,11 @@
       <c r="I170">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="L170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="2" t="s">
         <v>188</v>
       </c>
@@ -6893,8 +7447,11 @@
       <c r="I171">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="L171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -6922,8 +7479,11 @@
       <c r="I172">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="L172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="2" t="s">
         <v>190</v>
       </c>
@@ -6951,8 +7511,11 @@
       <c r="I173">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="L173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -6980,8 +7543,11 @@
       <c r="I174">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="L174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="2" t="s">
         <v>192</v>
       </c>
@@ -7009,8 +7575,11 @@
       <c r="I175">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="L175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="2" t="s">
         <v>193</v>
       </c>
@@ -7038,8 +7607,11 @@
       <c r="I176">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="L176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="2" t="s">
         <v>194</v>
       </c>
@@ -7067,8 +7639,11 @@
       <c r="I177">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="L177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="2" t="s">
         <v>195</v>
       </c>
@@ -7096,8 +7671,11 @@
       <c r="I178">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="L178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="2" t="s">
         <v>196</v>
       </c>
@@ -7125,8 +7703,11 @@
       <c r="I179">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="L179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="2" t="s">
         <v>197</v>
       </c>
@@ -7154,8 +7735,11 @@
       <c r="I180">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="L180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="2" t="s">
         <v>198</v>
       </c>
@@ -7183,8 +7767,11 @@
       <c r="I181">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="L181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="2" t="s">
         <v>199</v>
       </c>
@@ -7212,8 +7799,11 @@
       <c r="I182">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="L182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="2" t="s">
         <v>200</v>
       </c>
@@ -7241,8 +7831,11 @@
       <c r="I183">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="L183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="2" t="s">
         <v>201</v>
       </c>
@@ -7270,8 +7863,11 @@
       <c r="I184">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="L184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="2" t="s">
         <v>202</v>
       </c>
@@ -7299,8 +7895,11 @@
       <c r="I185">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="L185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="2" t="s">
         <v>203</v>
       </c>
@@ -7328,8 +7927,11 @@
       <c r="I186">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="L186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="2" t="s">
         <v>204</v>
       </c>
@@ -7357,8 +7959,11 @@
       <c r="I187">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="L187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -7386,8 +7991,11 @@
       <c r="I188">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="L188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -7415,8 +8023,11 @@
       <c r="I189">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="L189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="2" t="s">
         <v>207</v>
       </c>
@@ -7444,8 +8055,11 @@
       <c r="I190">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="L190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="2" t="s">
         <v>208</v>
       </c>
@@ -7473,8 +8087,11 @@
       <c r="I191">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="L191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="2" t="s">
         <v>209</v>
       </c>
@@ -7502,8 +8119,11 @@
       <c r="I192">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="L192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="2" t="s">
         <v>210</v>
       </c>
@@ -7531,8 +8151,11 @@
       <c r="I193">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="L193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="2" t="s">
         <v>211</v>
       </c>
@@ -7560,8 +8183,11 @@
       <c r="I194">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="L194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="2" t="s">
         <v>212</v>
       </c>
@@ -7589,8 +8215,11 @@
       <c r="I195">
         <v>38.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="L195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="2" t="s">
         <v>213</v>
       </c>
@@ -7617,6 +8246,9 @@
       </c>
       <c r="I196">
         <v>38.3</v>
+      </c>
+      <c r="L196">
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7740,7 +8372,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="E7 G7:H7" formula="true"/>
+    <ignoredError sqref="G7:H7 E7" formula="true"/>
   </ignoredErrors>
 </worksheet>
 </file>